--- a/ch2/output/write2_agelist.xlsx
+++ b/ch2/output/write2_agelist.xlsx
@@ -433,7 +433,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>세는 나이</t>
+          <t>세는나이</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
